--- a/vote_app/mediafiles/statistic_files/909c55035d388d39bebaf3d53a806e479fcfd91c.xlsx
+++ b/vote_app/mediafiles/statistic_files/909c55035d388d39bebaf3d53a806e479fcfd91c.xlsx
@@ -15,63 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
-  <si>
-    <t>Как погода</t>
-  </si>
-  <si>
-    <t>Второй вопрос</t>
-  </si>
-  <si>
-    <t>Как дела 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>Заголовок вопроса</t>
+  </si>
+  <si>
+    <t>Заголовок вопроса 2</t>
+  </si>
+  <si>
+    <t>Как ваше настроение?</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>870195</t>
-  </si>
-  <si>
-    <t>461985</t>
-  </si>
-  <si>
-    <t>415187</t>
-  </si>
-  <si>
-    <t>918166</t>
-  </si>
-  <si>
-    <t>365284</t>
-  </si>
-  <si>
-    <t>Ответ 1</t>
-  </si>
-  <si>
-    <t>Ответ 3</t>
-  </si>
-  <si>
-    <t>Отвт 2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>509044</t>
+  </si>
+  <si>
+    <t>Первый ответ на 1 вопрос</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Хорошо</t>
-  </si>
-  <si>
-    <t>Отлично</t>
-  </si>
-  <si>
-    <t>Плохо</t>
+    <t>Ответ на третий вопрос 3</t>
   </si>
   <si>
     <t>Вопрос</t>
@@ -435,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,69 +427,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +454,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -562,110 +473,6 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
